--- a/VTU EV Internship Offer Letters/applicants-vtu-internyet.xlsx
+++ b/VTU EV Internship Offer Letters/applicants-vtu-internyet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612F02C0-4728-4C54-A1FC-E40B476371DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0EAF83-CBCD-4C62-820B-5DF119A50148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AFF0A958-87A7-41C1-9091-BCD9BA3AC811}"/>
   </bookViews>
@@ -2415,8 +2415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0F17F0-694F-4C6E-A006-A0843DA59A1C}">
   <dimension ref="A1:E422"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D305" sqref="D305"/>
+    <sheetView tabSelected="1" topLeftCell="A405" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2440,7 +2440,7 @@
         <v>4</v>
       </c>
       <c r="E1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -2457,7 +2457,7 @@
         <v>4</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2474,7 +2474,7 @@
         <v>128</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -2491,7 +2491,7 @@
         <v>4</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -2508,7 +2508,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -2525,7 +2525,7 @@
         <v>4</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -2542,7 +2542,7 @@
         <v>4</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -2559,7 +2559,7 @@
         <v>13</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2576,7 +2576,7 @@
         <v>128</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -2593,7 +2593,7 @@
         <v>4</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -2610,7 +2610,7 @@
         <v>4</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -2627,7 +2627,7 @@
         <v>4</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -2644,7 +2644,7 @@
         <v>4</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -2661,7 +2661,7 @@
         <v>4</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -2678,7 +2678,7 @@
         <v>4</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -2695,7 +2695,7 @@
         <v>4</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -2712,7 +2712,7 @@
         <v>4</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -2729,7 +2729,7 @@
         <v>4</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -2746,7 +2746,7 @@
         <v>4</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -2763,7 +2763,7 @@
         <v>4</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -2780,7 +2780,7 @@
         <v>4</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -2797,7 +2797,7 @@
         <v>13</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -2814,7 +2814,7 @@
         <v>4</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -2831,7 +2831,7 @@
         <v>13</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -2848,7 +2848,7 @@
         <v>128</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -2865,7 +2865,7 @@
         <v>13</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -2882,7 +2882,7 @@
         <v>13</v>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -2899,7 +2899,7 @@
         <v>128</v>
       </c>
       <c r="E28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -2916,7 +2916,7 @@
         <v>4</v>
       </c>
       <c r="E29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -2933,7 +2933,7 @@
         <v>4</v>
       </c>
       <c r="E30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -2950,7 +2950,7 @@
         <v>4</v>
       </c>
       <c r="E31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -2967,7 +2967,7 @@
         <v>13</v>
       </c>
       <c r="E32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -2984,7 +2984,7 @@
         <v>13</v>
       </c>
       <c r="E33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -3001,7 +3001,7 @@
         <v>13</v>
       </c>
       <c r="E34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -3018,7 +3018,7 @@
         <v>13</v>
       </c>
       <c r="E35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -3035,7 +3035,7 @@
         <v>128</v>
       </c>
       <c r="E36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -3052,7 +3052,7 @@
         <v>13</v>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -3069,7 +3069,7 @@
         <v>13</v>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -3086,7 +3086,7 @@
         <v>4</v>
       </c>
       <c r="E39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -3103,7 +3103,7 @@
         <v>128</v>
       </c>
       <c r="E40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -3120,7 +3120,7 @@
         <v>4</v>
       </c>
       <c r="E41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -3137,7 +3137,7 @@
         <v>13</v>
       </c>
       <c r="E42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -3154,7 +3154,7 @@
         <v>128</v>
       </c>
       <c r="E43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -3171,7 +3171,7 @@
         <v>4</v>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -3188,7 +3188,7 @@
         <v>128</v>
       </c>
       <c r="E45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -3205,7 +3205,7 @@
         <v>4</v>
       </c>
       <c r="E46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -3222,7 +3222,7 @@
         <v>13</v>
       </c>
       <c r="E47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
@@ -3239,7 +3239,7 @@
         <v>4</v>
       </c>
       <c r="E48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
@@ -3256,7 +3256,7 @@
         <v>13</v>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
@@ -3273,7 +3273,7 @@
         <v>4</v>
       </c>
       <c r="E50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
@@ -3290,7 +3290,7 @@
         <v>13</v>
       </c>
       <c r="E51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
@@ -3307,7 +3307,7 @@
         <v>13</v>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
@@ -3324,7 +3324,7 @@
         <v>13</v>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -3341,7 +3341,7 @@
         <v>4</v>
       </c>
       <c r="E54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
@@ -3358,7 +3358,7 @@
         <v>4</v>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
@@ -3375,7 +3375,7 @@
         <v>4</v>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
@@ -3392,7 +3392,7 @@
         <v>4</v>
       </c>
       <c r="E57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
@@ -3409,7 +3409,7 @@
         <v>13</v>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="E59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -3443,7 +3443,7 @@
         <v>13</v>
       </c>
       <c r="E60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
@@ -3460,7 +3460,7 @@
         <v>4</v>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
@@ -3477,7 +3477,7 @@
         <v>4</v>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
@@ -3494,7 +3494,7 @@
         <v>4</v>
       </c>
       <c r="E63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
@@ -3511,7 +3511,7 @@
         <v>13</v>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -3528,7 +3528,7 @@
         <v>4</v>
       </c>
       <c r="E65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
@@ -3545,7 +3545,7 @@
         <v>4</v>
       </c>
       <c r="E66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
@@ -3562,7 +3562,7 @@
         <v>13</v>
       </c>
       <c r="E67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
@@ -3579,7 +3579,7 @@
         <v>128</v>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
@@ -3596,7 +3596,7 @@
         <v>13</v>
       </c>
       <c r="E69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
@@ -3613,7 +3613,7 @@
         <v>4</v>
       </c>
       <c r="E70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
@@ -3630,7 +3630,7 @@
         <v>13</v>
       </c>
       <c r="E71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
@@ -3647,7 +3647,7 @@
         <v>13</v>
       </c>
       <c r="E72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
@@ -3664,7 +3664,7 @@
         <v>13</v>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
@@ -3681,7 +3681,7 @@
         <v>13</v>
       </c>
       <c r="E74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
@@ -3698,7 +3698,7 @@
         <v>4</v>
       </c>
       <c r="E75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
@@ -3715,7 +3715,7 @@
         <v>4</v>
       </c>
       <c r="E76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
@@ -3732,7 +3732,7 @@
         <v>4</v>
       </c>
       <c r="E77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
@@ -3749,7 +3749,7 @@
         <v>13</v>
       </c>
       <c r="E78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
@@ -3766,7 +3766,7 @@
         <v>13</v>
       </c>
       <c r="E79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
@@ -3783,7 +3783,7 @@
         <v>13</v>
       </c>
       <c r="E80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
@@ -3800,7 +3800,7 @@
         <v>13</v>
       </c>
       <c r="E81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
@@ -3817,7 +3817,7 @@
         <v>128</v>
       </c>
       <c r="E82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
@@ -3834,7 +3834,7 @@
         <v>128</v>
       </c>
       <c r="E83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
@@ -3851,7 +3851,7 @@
         <v>4</v>
       </c>
       <c r="E84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
@@ -3868,7 +3868,7 @@
         <v>4</v>
       </c>
       <c r="E85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
@@ -3885,7 +3885,7 @@
         <v>4</v>
       </c>
       <c r="E86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
@@ -3902,7 +3902,7 @@
         <v>128</v>
       </c>
       <c r="E87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
@@ -3919,7 +3919,7 @@
         <v>4</v>
       </c>
       <c r="E88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
@@ -3936,7 +3936,7 @@
         <v>4</v>
       </c>
       <c r="E89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
@@ -3953,7 +3953,7 @@
         <v>4</v>
       </c>
       <c r="E90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
@@ -3970,7 +3970,7 @@
         <v>128</v>
       </c>
       <c r="E91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
@@ -3987,7 +3987,7 @@
         <v>4</v>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
@@ -4004,7 +4004,7 @@
         <v>4</v>
       </c>
       <c r="E93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
@@ -4021,7 +4021,7 @@
         <v>128</v>
       </c>
       <c r="E94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
@@ -4038,7 +4038,7 @@
         <v>4</v>
       </c>
       <c r="E95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
@@ -4055,7 +4055,7 @@
         <v>4</v>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
@@ -4072,7 +4072,7 @@
         <v>4</v>
       </c>
       <c r="E97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
@@ -4089,7 +4089,7 @@
         <v>128</v>
       </c>
       <c r="E98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
@@ -4106,7 +4106,7 @@
         <v>4</v>
       </c>
       <c r="E99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
@@ -4123,7 +4123,7 @@
         <v>4</v>
       </c>
       <c r="E100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
@@ -4140,7 +4140,7 @@
         <v>4</v>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
@@ -4157,7 +4157,7 @@
         <v>13</v>
       </c>
       <c r="E102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
@@ -4174,7 +4174,7 @@
         <v>13</v>
       </c>
       <c r="E103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
@@ -4191,7 +4191,7 @@
         <v>4</v>
       </c>
       <c r="E104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
@@ -4208,7 +4208,7 @@
         <v>13</v>
       </c>
       <c r="E105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
@@ -4225,7 +4225,7 @@
         <v>13</v>
       </c>
       <c r="E106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
@@ -4242,7 +4242,7 @@
         <v>4</v>
       </c>
       <c r="E107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
@@ -4259,7 +4259,7 @@
         <v>128</v>
       </c>
       <c r="E108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
@@ -4276,7 +4276,7 @@
         <v>4</v>
       </c>
       <c r="E109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
@@ -4293,7 +4293,7 @@
         <v>4</v>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
@@ -4310,7 +4310,7 @@
         <v>4</v>
       </c>
       <c r="E111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
@@ -4327,7 +4327,7 @@
         <v>4</v>
       </c>
       <c r="E112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
@@ -4344,7 +4344,7 @@
         <v>13</v>
       </c>
       <c r="E113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
@@ -4361,7 +4361,7 @@
         <v>128</v>
       </c>
       <c r="E114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
@@ -4378,7 +4378,7 @@
         <v>4</v>
       </c>
       <c r="E115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
@@ -4395,7 +4395,7 @@
         <v>13</v>
       </c>
       <c r="E116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
@@ -4412,7 +4412,7 @@
         <v>4</v>
       </c>
       <c r="E117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
@@ -4429,7 +4429,7 @@
         <v>4</v>
       </c>
       <c r="E118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
@@ -4446,7 +4446,7 @@
         <v>128</v>
       </c>
       <c r="E119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
@@ -4463,7 +4463,7 @@
         <v>13</v>
       </c>
       <c r="E120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
@@ -4480,7 +4480,7 @@
         <v>4</v>
       </c>
       <c r="E121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
@@ -4497,7 +4497,7 @@
         <v>13</v>
       </c>
       <c r="E122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
@@ -4514,7 +4514,7 @@
         <v>128</v>
       </c>
       <c r="E123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
@@ -4531,7 +4531,7 @@
         <v>4</v>
       </c>
       <c r="E124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
@@ -4548,7 +4548,7 @@
         <v>4</v>
       </c>
       <c r="E125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
@@ -4565,7 +4565,7 @@
         <v>13</v>
       </c>
       <c r="E126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
@@ -4582,7 +4582,7 @@
         <v>4</v>
       </c>
       <c r="E127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
@@ -4599,7 +4599,7 @@
         <v>13</v>
       </c>
       <c r="E128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
@@ -4616,7 +4616,7 @@
         <v>4</v>
       </c>
       <c r="E129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
@@ -4633,7 +4633,7 @@
         <v>13</v>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
@@ -4650,7 +4650,7 @@
         <v>13</v>
       </c>
       <c r="E131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
@@ -4667,7 +4667,7 @@
         <v>128</v>
       </c>
       <c r="E132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
@@ -4684,7 +4684,7 @@
         <v>4</v>
       </c>
       <c r="E133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
@@ -4701,7 +4701,7 @@
         <v>4</v>
       </c>
       <c r="E134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
@@ -4718,7 +4718,7 @@
         <v>13</v>
       </c>
       <c r="E135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
@@ -4735,7 +4735,7 @@
         <v>4</v>
       </c>
       <c r="E136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
@@ -4752,7 +4752,7 @@
         <v>4</v>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
@@ -4769,7 +4769,7 @@
         <v>13</v>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
@@ -4786,7 +4786,7 @@
         <v>4</v>
       </c>
       <c r="E139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
@@ -4803,7 +4803,7 @@
         <v>13</v>
       </c>
       <c r="E140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
@@ -4820,7 +4820,7 @@
         <v>13</v>
       </c>
       <c r="E141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
@@ -4837,7 +4837,7 @@
         <v>4</v>
       </c>
       <c r="E142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
@@ -4854,7 +4854,7 @@
         <v>4</v>
       </c>
       <c r="E143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
@@ -4871,7 +4871,7 @@
         <v>13</v>
       </c>
       <c r="E144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
@@ -4888,7 +4888,7 @@
         <v>13</v>
       </c>
       <c r="E145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
@@ -4905,7 +4905,7 @@
         <v>128</v>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
@@ -4922,7 +4922,7 @@
         <v>13</v>
       </c>
       <c r="E147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
@@ -4939,7 +4939,7 @@
         <v>13</v>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
@@ -4956,7 +4956,7 @@
         <v>13</v>
       </c>
       <c r="E149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
@@ -4973,7 +4973,7 @@
         <v>13</v>
       </c>
       <c r="E150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
@@ -4990,7 +4990,7 @@
         <v>128</v>
       </c>
       <c r="E151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
@@ -5007,7 +5007,7 @@
         <v>13</v>
       </c>
       <c r="E152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
@@ -5024,7 +5024,7 @@
         <v>4</v>
       </c>
       <c r="E153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
@@ -5041,7 +5041,7 @@
         <v>13</v>
       </c>
       <c r="E154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
@@ -5058,7 +5058,7 @@
         <v>128</v>
       </c>
       <c r="E155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
@@ -5075,7 +5075,7 @@
         <v>4</v>
       </c>
       <c r="E156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
@@ -5092,7 +5092,7 @@
         <v>13</v>
       </c>
       <c r="E157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
@@ -5109,7 +5109,7 @@
         <v>128</v>
       </c>
       <c r="E158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
@@ -5126,7 +5126,7 @@
         <v>13</v>
       </c>
       <c r="E159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
@@ -5143,7 +5143,7 @@
         <v>13</v>
       </c>
       <c r="E160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
@@ -5160,7 +5160,7 @@
         <v>13</v>
       </c>
       <c r="E161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
@@ -5177,7 +5177,7 @@
         <v>128</v>
       </c>
       <c r="E162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
@@ -5194,7 +5194,7 @@
         <v>4</v>
       </c>
       <c r="E163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
@@ -5211,7 +5211,7 @@
         <v>4</v>
       </c>
       <c r="E164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
@@ -5228,7 +5228,7 @@
         <v>4</v>
       </c>
       <c r="E165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
@@ -5245,7 +5245,7 @@
         <v>13</v>
       </c>
       <c r="E166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
@@ -5262,7 +5262,7 @@
         <v>128</v>
       </c>
       <c r="E167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
@@ -5279,7 +5279,7 @@
         <v>13</v>
       </c>
       <c r="E168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
@@ -5296,7 +5296,7 @@
         <v>4</v>
       </c>
       <c r="E169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
@@ -5313,7 +5313,7 @@
         <v>13</v>
       </c>
       <c r="E170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
@@ -5330,7 +5330,7 @@
         <v>4</v>
       </c>
       <c r="E171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.35">
@@ -5347,7 +5347,7 @@
         <v>4</v>
       </c>
       <c r="E172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
@@ -5364,7 +5364,7 @@
         <v>4</v>
       </c>
       <c r="E173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
@@ -5381,7 +5381,7 @@
         <v>4</v>
       </c>
       <c r="E174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
@@ -5398,7 +5398,7 @@
         <v>13</v>
       </c>
       <c r="E175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.35">
@@ -5415,7 +5415,7 @@
         <v>13</v>
       </c>
       <c r="E176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.35">
@@ -5432,7 +5432,7 @@
         <v>4</v>
       </c>
       <c r="E177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.35">
@@ -5449,7 +5449,7 @@
         <v>13</v>
       </c>
       <c r="E178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
@@ -5466,7 +5466,7 @@
         <v>128</v>
       </c>
       <c r="E179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.35">
@@ -5483,7 +5483,7 @@
         <v>4</v>
       </c>
       <c r="E180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.35">
@@ -5500,7 +5500,7 @@
         <v>4</v>
       </c>
       <c r="E181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.35">
@@ -5517,7 +5517,7 @@
         <v>13</v>
       </c>
       <c r="E182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.35">
@@ -5534,7 +5534,7 @@
         <v>13</v>
       </c>
       <c r="E183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.35">
@@ -5551,7 +5551,7 @@
         <v>4</v>
       </c>
       <c r="E184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.35">
@@ -5568,7 +5568,7 @@
         <v>4</v>
       </c>
       <c r="E185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.35">
@@ -5585,7 +5585,7 @@
         <v>4</v>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.35">
@@ -5602,7 +5602,7 @@
         <v>13</v>
       </c>
       <c r="E187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.35">
@@ -5619,7 +5619,7 @@
         <v>13</v>
       </c>
       <c r="E188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.35">
@@ -5636,7 +5636,7 @@
         <v>13</v>
       </c>
       <c r="E189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.35">
@@ -5653,7 +5653,7 @@
         <v>13</v>
       </c>
       <c r="E190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">
@@ -5670,7 +5670,7 @@
         <v>128</v>
       </c>
       <c r="E191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.35">
@@ -5687,7 +5687,7 @@
         <v>13</v>
       </c>
       <c r="E192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.35">
@@ -5704,7 +5704,7 @@
         <v>13</v>
       </c>
       <c r="E193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.35">
@@ -5721,7 +5721,7 @@
         <v>13</v>
       </c>
       <c r="E194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.35">
@@ -5738,7 +5738,7 @@
         <v>4</v>
       </c>
       <c r="E195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.35">
@@ -5755,7 +5755,7 @@
         <v>13</v>
       </c>
       <c r="E196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.35">
@@ -5772,7 +5772,7 @@
         <v>13</v>
       </c>
       <c r="E197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.35">
@@ -5789,7 +5789,7 @@
         <v>4</v>
       </c>
       <c r="E198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.35">
@@ -5806,7 +5806,7 @@
         <v>13</v>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.35">
@@ -5823,7 +5823,7 @@
         <v>13</v>
       </c>
       <c r="E200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.35">
@@ -5840,7 +5840,7 @@
         <v>128</v>
       </c>
       <c r="E201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.35">
@@ -5857,7 +5857,7 @@
         <v>13</v>
       </c>
       <c r="E202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.35">
@@ -5874,7 +5874,7 @@
         <v>128</v>
       </c>
       <c r="E203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.35">
@@ -5891,7 +5891,7 @@
         <v>4</v>
       </c>
       <c r="E204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.35">
@@ -5908,7 +5908,7 @@
         <v>4</v>
       </c>
       <c r="E205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.35">
@@ -5925,7 +5925,7 @@
         <v>13</v>
       </c>
       <c r="E206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.35">
@@ -5942,7 +5942,7 @@
         <v>13</v>
       </c>
       <c r="E207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.35">
@@ -5959,7 +5959,7 @@
         <v>13</v>
       </c>
       <c r="E208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.35">
@@ -5976,7 +5976,7 @@
         <v>4</v>
       </c>
       <c r="E209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.35">
@@ -5993,7 +5993,7 @@
         <v>4</v>
       </c>
       <c r="E210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.35">
@@ -6010,7 +6010,7 @@
         <v>4</v>
       </c>
       <c r="E211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.35">
@@ -6027,7 +6027,7 @@
         <v>13</v>
       </c>
       <c r="E212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.35">
@@ -6044,7 +6044,7 @@
         <v>13</v>
       </c>
       <c r="E213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.35">
@@ -6061,7 +6061,7 @@
         <v>13</v>
       </c>
       <c r="E214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.35">
@@ -6078,7 +6078,7 @@
         <v>13</v>
       </c>
       <c r="E215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.35">
@@ -6095,7 +6095,7 @@
         <v>4</v>
       </c>
       <c r="E216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.35">
@@ -6112,7 +6112,7 @@
         <v>128</v>
       </c>
       <c r="E217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.35">
@@ -6129,7 +6129,7 @@
         <v>4</v>
       </c>
       <c r="E218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.35">
@@ -6146,7 +6146,7 @@
         <v>4</v>
       </c>
       <c r="E219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.35">
@@ -6163,7 +6163,7 @@
         <v>4</v>
       </c>
       <c r="E220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.35">
@@ -6180,7 +6180,7 @@
         <v>13</v>
       </c>
       <c r="E221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.35">
@@ -6197,7 +6197,7 @@
         <v>13</v>
       </c>
       <c r="E222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.35">
@@ -6214,7 +6214,7 @@
         <v>128</v>
       </c>
       <c r="E223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.35">
@@ -6231,7 +6231,7 @@
         <v>13</v>
       </c>
       <c r="E224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.35">
@@ -6248,7 +6248,7 @@
         <v>4</v>
       </c>
       <c r="E225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.35">
@@ -6265,7 +6265,7 @@
         <v>4</v>
       </c>
       <c r="E226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.35">
@@ -6282,7 +6282,7 @@
         <v>128</v>
       </c>
       <c r="E227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.35">
@@ -6299,7 +6299,7 @@
         <v>128</v>
       </c>
       <c r="E228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.35">
@@ -6316,7 +6316,7 @@
         <v>13</v>
       </c>
       <c r="E229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.35">
@@ -6333,7 +6333,7 @@
         <v>13</v>
       </c>
       <c r="E230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.35">
@@ -6350,7 +6350,7 @@
         <v>13</v>
       </c>
       <c r="E231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.35">
@@ -6367,7 +6367,7 @@
         <v>13</v>
       </c>
       <c r="E232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.35">
@@ -6384,7 +6384,7 @@
         <v>13</v>
       </c>
       <c r="E233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.35">
@@ -6401,7 +6401,7 @@
         <v>13</v>
       </c>
       <c r="E234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.35">
@@ -6418,7 +6418,7 @@
         <v>4</v>
       </c>
       <c r="E235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.35">
@@ -6435,7 +6435,7 @@
         <v>13</v>
       </c>
       <c r="E236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.35">
@@ -6452,7 +6452,7 @@
         <v>13</v>
       </c>
       <c r="E237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.35">
@@ -6469,7 +6469,7 @@
         <v>4</v>
       </c>
       <c r="E238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.35">
@@ -6486,7 +6486,7 @@
         <v>13</v>
       </c>
       <c r="E239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.35">
@@ -6503,7 +6503,7 @@
         <v>128</v>
       </c>
       <c r="E240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.35">
@@ -6520,7 +6520,7 @@
         <v>128</v>
       </c>
       <c r="E241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.35">
@@ -6537,7 +6537,7 @@
         <v>13</v>
       </c>
       <c r="E242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.35">
@@ -6554,7 +6554,7 @@
         <v>4</v>
       </c>
       <c r="E243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.35">
@@ -6571,7 +6571,7 @@
         <v>13</v>
       </c>
       <c r="E244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.35">
@@ -6588,7 +6588,7 @@
         <v>13</v>
       </c>
       <c r="E245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.35">
@@ -6605,7 +6605,7 @@
         <v>128</v>
       </c>
       <c r="E246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.35">
@@ -6622,7 +6622,7 @@
         <v>128</v>
       </c>
       <c r="E247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.35">
@@ -6639,7 +6639,7 @@
         <v>13</v>
       </c>
       <c r="E248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.35">
@@ -6656,7 +6656,7 @@
         <v>4</v>
       </c>
       <c r="E249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.35">
@@ -6673,7 +6673,7 @@
         <v>13</v>
       </c>
       <c r="E250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.35">
@@ -6690,7 +6690,7 @@
         <v>4</v>
       </c>
       <c r="E251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.35">
@@ -6707,7 +6707,7 @@
         <v>4</v>
       </c>
       <c r="E252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.35">
@@ -6724,7 +6724,7 @@
         <v>4</v>
       </c>
       <c r="E253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.35">
@@ -6741,7 +6741,7 @@
         <v>4</v>
       </c>
       <c r="E254" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.35">
@@ -6758,7 +6758,7 @@
         <v>128</v>
       </c>
       <c r="E255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.35">
@@ -6775,7 +6775,7 @@
         <v>4</v>
       </c>
       <c r="E256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.35">
@@ -6792,7 +6792,7 @@
         <v>13</v>
       </c>
       <c r="E257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.35">
@@ -6809,7 +6809,7 @@
         <v>128</v>
       </c>
       <c r="E258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.35">
@@ -6826,7 +6826,7 @@
         <v>13</v>
       </c>
       <c r="E259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.35">
@@ -6843,7 +6843,7 @@
         <v>128</v>
       </c>
       <c r="E260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.35">
@@ -6860,7 +6860,7 @@
         <v>128</v>
       </c>
       <c r="E261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.35">
@@ -6877,7 +6877,7 @@
         <v>13</v>
       </c>
       <c r="E262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.35">
@@ -6894,7 +6894,7 @@
         <v>128</v>
       </c>
       <c r="E263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.35">
@@ -6911,7 +6911,7 @@
         <v>128</v>
       </c>
       <c r="E264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.35">
@@ -6928,7 +6928,7 @@
         <v>13</v>
       </c>
       <c r="E265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.35">
@@ -6945,7 +6945,7 @@
         <v>13</v>
       </c>
       <c r="E266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.35">
@@ -6962,7 +6962,7 @@
         <v>128</v>
       </c>
       <c r="E267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.35">
@@ -6979,7 +6979,7 @@
         <v>4</v>
       </c>
       <c r="E268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.35">
@@ -6996,7 +6996,7 @@
         <v>4</v>
       </c>
       <c r="E269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.35">
@@ -7013,7 +7013,7 @@
         <v>4</v>
       </c>
       <c r="E270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.35">
@@ -7030,7 +7030,7 @@
         <v>13</v>
       </c>
       <c r="E271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.35">
@@ -7047,7 +7047,7 @@
         <v>4</v>
       </c>
       <c r="E272" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.35">
@@ -7064,7 +7064,7 @@
         <v>13</v>
       </c>
       <c r="E273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.35">
@@ -7081,7 +7081,7 @@
         <v>128</v>
       </c>
       <c r="E274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.35">
@@ -7098,7 +7098,7 @@
         <v>4</v>
       </c>
       <c r="E275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.35">
@@ -7115,7 +7115,7 @@
         <v>128</v>
       </c>
       <c r="E276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.35">
@@ -7132,7 +7132,7 @@
         <v>128</v>
       </c>
       <c r="E277" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.35">
@@ -7149,7 +7149,7 @@
         <v>13</v>
       </c>
       <c r="E278" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.35">
@@ -7166,7 +7166,7 @@
         <v>128</v>
       </c>
       <c r="E279" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.35">
@@ -7183,7 +7183,7 @@
         <v>4</v>
       </c>
       <c r="E280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.35">
@@ -7200,7 +7200,7 @@
         <v>4</v>
       </c>
       <c r="E281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.35">
@@ -7217,7 +7217,7 @@
         <v>13</v>
       </c>
       <c r="E282" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.35">
@@ -7234,7 +7234,7 @@
         <v>13</v>
       </c>
       <c r="E283" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.35">
@@ -7251,7 +7251,7 @@
         <v>4</v>
       </c>
       <c r="E284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.35">
@@ -7268,7 +7268,7 @@
         <v>128</v>
       </c>
       <c r="E285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.35">
@@ -7285,7 +7285,7 @@
         <v>4</v>
       </c>
       <c r="E286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.35">
@@ -7302,7 +7302,7 @@
         <v>4</v>
       </c>
       <c r="E287" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.35">
@@ -7319,7 +7319,7 @@
         <v>4</v>
       </c>
       <c r="E288" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.35">
@@ -7336,7 +7336,7 @@
         <v>4</v>
       </c>
       <c r="E289" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.35">
@@ -7353,7 +7353,7 @@
         <v>4</v>
       </c>
       <c r="E290" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.35">
@@ -7370,7 +7370,7 @@
         <v>4</v>
       </c>
       <c r="E291" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.35">
@@ -7387,7 +7387,7 @@
         <v>13</v>
       </c>
       <c r="E292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.35">
@@ -7404,7 +7404,7 @@
         <v>128</v>
       </c>
       <c r="E293" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.35">
@@ -7421,7 +7421,7 @@
         <v>4</v>
       </c>
       <c r="E294" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.35">
@@ -7438,7 +7438,7 @@
         <v>13</v>
       </c>
       <c r="E295" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.35">
@@ -7455,7 +7455,7 @@
         <v>128</v>
       </c>
       <c r="E296" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.35">
@@ -7472,7 +7472,7 @@
         <v>128</v>
       </c>
       <c r="E297" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.35">
@@ -7489,7 +7489,7 @@
         <v>4</v>
       </c>
       <c r="E298" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.35">
@@ -7506,7 +7506,7 @@
         <v>13</v>
       </c>
       <c r="E299" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.35">
@@ -7523,7 +7523,7 @@
         <v>13</v>
       </c>
       <c r="E300" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.35">
@@ -7540,7 +7540,7 @@
         <v>4</v>
       </c>
       <c r="E301" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.35">
@@ -7557,7 +7557,7 @@
         <v>13</v>
       </c>
       <c r="E302" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.35">
@@ -7574,7 +7574,7 @@
         <v>128</v>
       </c>
       <c r="E303" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.35">
@@ -7591,7 +7591,7 @@
         <v>13</v>
       </c>
       <c r="E304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.35">
@@ -7608,7 +7608,7 @@
         <v>13</v>
       </c>
       <c r="E305" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.35">
@@ -7625,7 +7625,7 @@
         <v>13</v>
       </c>
       <c r="E306" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.35">
@@ -7642,7 +7642,7 @@
         <v>4</v>
       </c>
       <c r="E307" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.35">
@@ -7659,7 +7659,7 @@
         <v>13</v>
       </c>
       <c r="E308" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.35">
@@ -7676,7 +7676,7 @@
         <v>13</v>
       </c>
       <c r="E309" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.35">
@@ -7693,7 +7693,7 @@
         <v>13</v>
       </c>
       <c r="E310" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.35">
@@ -7710,7 +7710,7 @@
         <v>13</v>
       </c>
       <c r="E311" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.35">
@@ -7727,7 +7727,7 @@
         <v>13</v>
       </c>
       <c r="E312" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.35">
@@ -7744,7 +7744,7 @@
         <v>13</v>
       </c>
       <c r="E313" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.35">
@@ -7761,7 +7761,7 @@
         <v>13</v>
       </c>
       <c r="E314" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.35">
@@ -7778,7 +7778,7 @@
         <v>4</v>
       </c>
       <c r="E315" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.35">
@@ -7795,7 +7795,7 @@
         <v>4</v>
       </c>
       <c r="E316" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.35">
@@ -7812,7 +7812,7 @@
         <v>128</v>
       </c>
       <c r="E317" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.35">
@@ -7829,7 +7829,7 @@
         <v>4</v>
       </c>
       <c r="E318" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.35">
@@ -7846,7 +7846,7 @@
         <v>4</v>
       </c>
       <c r="E319" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.35">
@@ -7863,7 +7863,7 @@
         <v>128</v>
       </c>
       <c r="E320" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.35">
@@ -7880,7 +7880,7 @@
         <v>128</v>
       </c>
       <c r="E321" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.35">
@@ -7897,7 +7897,7 @@
         <v>13</v>
       </c>
       <c r="E322" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.35">
@@ -7914,7 +7914,7 @@
         <v>128</v>
       </c>
       <c r="E323" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.35">
@@ -7931,7 +7931,7 @@
         <v>128</v>
       </c>
       <c r="E324" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.35">
@@ -7948,7 +7948,7 @@
         <v>13</v>
       </c>
       <c r="E325" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.35">
@@ -7965,7 +7965,7 @@
         <v>128</v>
       </c>
       <c r="E326" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.35">
@@ -7982,7 +7982,7 @@
         <v>128</v>
       </c>
       <c r="E327" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.35">
@@ -7999,7 +7999,7 @@
         <v>13</v>
       </c>
       <c r="E328" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.35">
@@ -8016,7 +8016,7 @@
         <v>4</v>
       </c>
       <c r="E329" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.35">
@@ -8033,7 +8033,7 @@
         <v>13</v>
       </c>
       <c r="E330" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.35">
@@ -8050,7 +8050,7 @@
         <v>13</v>
       </c>
       <c r="E331" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.35">
@@ -8067,7 +8067,7 @@
         <v>128</v>
       </c>
       <c r="E332" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.35">
@@ -8084,7 +8084,7 @@
         <v>4</v>
       </c>
       <c r="E333" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.35">
@@ -8101,7 +8101,7 @@
         <v>4</v>
       </c>
       <c r="E334" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.35">
@@ -8118,7 +8118,7 @@
         <v>128</v>
       </c>
       <c r="E335" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.35">
@@ -8135,7 +8135,7 @@
         <v>4</v>
       </c>
       <c r="E336" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.35">
@@ -8152,7 +8152,7 @@
         <v>128</v>
       </c>
       <c r="E337" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.35">
@@ -8169,7 +8169,7 @@
         <v>4</v>
       </c>
       <c r="E338" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.35">
@@ -8186,7 +8186,7 @@
         <v>13</v>
       </c>
       <c r="E339" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.35">
@@ -8203,7 +8203,7 @@
         <v>128</v>
       </c>
       <c r="E340" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.35">
@@ -8220,7 +8220,7 @@
         <v>4</v>
       </c>
       <c r="E341" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.35">
@@ -8237,7 +8237,7 @@
         <v>13</v>
       </c>
       <c r="E342" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.35">
@@ -8254,7 +8254,7 @@
         <v>128</v>
       </c>
       <c r="E343" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.35">
@@ -8271,7 +8271,7 @@
         <v>13</v>
       </c>
       <c r="E344" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.35">
@@ -8288,7 +8288,7 @@
         <v>13</v>
       </c>
       <c r="E345" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.35">
@@ -8305,7 +8305,7 @@
         <v>13</v>
       </c>
       <c r="E346" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.35">
@@ -8322,7 +8322,7 @@
         <v>128</v>
       </c>
       <c r="E347" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.35">
@@ -8339,7 +8339,7 @@
         <v>13</v>
       </c>
       <c r="E348" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.35">
@@ -8356,7 +8356,7 @@
         <v>128</v>
       </c>
       <c r="E349" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.35">
@@ -8367,7 +8367,7 @@
         <v>14</v>
       </c>
       <c r="E350" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.35">
@@ -8384,7 +8384,7 @@
         <v>13</v>
       </c>
       <c r="E351" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.35">
@@ -8401,7 +8401,7 @@
         <v>4</v>
       </c>
       <c r="E352" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.35">
@@ -8418,7 +8418,7 @@
         <v>128</v>
       </c>
       <c r="E353" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.35">
@@ -8435,7 +8435,7 @@
         <v>128</v>
       </c>
       <c r="E354" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.35">
@@ -8452,7 +8452,7 @@
         <v>128</v>
       </c>
       <c r="E355" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.35">
@@ -8469,7 +8469,7 @@
         <v>13</v>
       </c>
       <c r="E356" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.35">
@@ -8486,7 +8486,7 @@
         <v>13</v>
       </c>
       <c r="E357" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.35">
@@ -8503,7 +8503,7 @@
         <v>128</v>
       </c>
       <c r="E358" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.35">
@@ -8520,7 +8520,7 @@
         <v>4</v>
       </c>
       <c r="E359" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.35">
@@ -8537,7 +8537,7 @@
         <v>4</v>
       </c>
       <c r="E360" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.35">
@@ -8554,7 +8554,7 @@
         <v>577</v>
       </c>
       <c r="E361" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.35">
@@ -8571,7 +8571,7 @@
         <v>13</v>
       </c>
       <c r="E362" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.35">
@@ -8588,7 +8588,7 @@
         <v>13</v>
       </c>
       <c r="E363" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.35">
@@ -8605,7 +8605,7 @@
         <v>128</v>
       </c>
       <c r="E364" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.35">
@@ -8622,7 +8622,7 @@
         <v>13</v>
       </c>
       <c r="E365" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.35">
@@ -8639,7 +8639,7 @@
         <v>4</v>
       </c>
       <c r="E366" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.35">
@@ -8656,7 +8656,7 @@
         <v>13</v>
       </c>
       <c r="E367" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.35">
@@ -8673,7 +8673,7 @@
         <v>13</v>
       </c>
       <c r="E368" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.35">
@@ -8690,7 +8690,7 @@
         <v>13</v>
       </c>
       <c r="E369" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.35">
@@ -8707,7 +8707,7 @@
         <v>4</v>
       </c>
       <c r="E370" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.35">
@@ -8724,7 +8724,7 @@
         <v>4</v>
       </c>
       <c r="E371" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.35">
@@ -8741,7 +8741,7 @@
         <v>4</v>
       </c>
       <c r="E372" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.35">
@@ -8758,7 +8758,7 @@
         <v>13</v>
       </c>
       <c r="E373" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.35">
@@ -8775,7 +8775,7 @@
         <v>4</v>
       </c>
       <c r="E374" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.35">
@@ -8792,7 +8792,7 @@
         <v>4</v>
       </c>
       <c r="E375" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.35">
@@ -8809,7 +8809,7 @@
         <v>13</v>
       </c>
       <c r="E376" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.35">
@@ -8826,7 +8826,7 @@
         <v>13</v>
       </c>
       <c r="E377" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.35">
@@ -8843,7 +8843,7 @@
         <v>13</v>
       </c>
       <c r="E378" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.35">
@@ -8860,7 +8860,7 @@
         <v>4</v>
       </c>
       <c r="E379" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.35">
@@ -8877,7 +8877,7 @@
         <v>4</v>
       </c>
       <c r="E380" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.35">
@@ -8894,7 +8894,7 @@
         <v>4</v>
       </c>
       <c r="E381" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.35">
@@ -8911,7 +8911,7 @@
         <v>128</v>
       </c>
       <c r="E382" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.35">
@@ -8928,7 +8928,7 @@
         <v>4</v>
       </c>
       <c r="E383" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.35">
@@ -8945,7 +8945,7 @@
         <v>128</v>
       </c>
       <c r="E384" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.35">
@@ -8962,7 +8962,7 @@
         <v>128</v>
       </c>
       <c r="E385" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.35">
@@ -8979,7 +8979,7 @@
         <v>128</v>
       </c>
       <c r="E386" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.35">
@@ -8996,7 +8996,7 @@
         <v>4</v>
       </c>
       <c r="E387" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.35">
@@ -9013,7 +9013,7 @@
         <v>4</v>
       </c>
       <c r="E388" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.35">
@@ -9030,7 +9030,7 @@
         <v>4</v>
       </c>
       <c r="E389" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.35">
@@ -9047,7 +9047,7 @@
         <v>4</v>
       </c>
       <c r="E390" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.35">
@@ -9064,7 +9064,7 @@
         <v>128</v>
       </c>
       <c r="E391" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.35">
@@ -9081,7 +9081,7 @@
         <v>4</v>
       </c>
       <c r="E392" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.35">
@@ -9098,7 +9098,7 @@
         <v>4</v>
       </c>
       <c r="E393" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.35">
@@ -9115,7 +9115,7 @@
         <v>4</v>
       </c>
       <c r="E394" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.35">
@@ -9132,7 +9132,7 @@
         <v>13</v>
       </c>
       <c r="E395" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.35">
@@ -9149,7 +9149,7 @@
         <v>13</v>
       </c>
       <c r="E396" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.35">
@@ -9166,7 +9166,7 @@
         <v>4</v>
       </c>
       <c r="E397" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.35">
@@ -9183,7 +9183,7 @@
         <v>13</v>
       </c>
       <c r="E398" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.35">
@@ -9200,7 +9200,7 @@
         <v>13</v>
       </c>
       <c r="E399" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.35">
@@ -9217,7 +9217,7 @@
         <v>128</v>
       </c>
       <c r="E400" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.35">
@@ -9234,7 +9234,7 @@
         <v>4</v>
       </c>
       <c r="E401" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.35">
@@ -9251,7 +9251,7 @@
         <v>13</v>
       </c>
       <c r="E402" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.35">
@@ -9268,7 +9268,7 @@
         <v>13</v>
       </c>
       <c r="E403" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.35">
@@ -9285,7 +9285,7 @@
         <v>4</v>
       </c>
       <c r="E404" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.35">
@@ -9302,7 +9302,7 @@
         <v>13</v>
       </c>
       <c r="E405" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.35">
@@ -9319,7 +9319,7 @@
         <v>13</v>
       </c>
       <c r="E406" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.35">
@@ -9336,7 +9336,7 @@
         <v>4</v>
       </c>
       <c r="E407" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.35">
@@ -9353,7 +9353,7 @@
         <v>13</v>
       </c>
       <c r="E408" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.35">
@@ -9370,7 +9370,7 @@
         <v>4</v>
       </c>
       <c r="E409" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.35">
@@ -9387,7 +9387,7 @@
         <v>128</v>
       </c>
       <c r="E410" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.35">
@@ -9404,7 +9404,7 @@
         <v>4</v>
       </c>
       <c r="E411" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.35">
@@ -9421,7 +9421,7 @@
         <v>13</v>
       </c>
       <c r="E412" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.35">
@@ -9438,7 +9438,7 @@
         <v>128</v>
       </c>
       <c r="E413" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.35">
@@ -9455,7 +9455,7 @@
         <v>13</v>
       </c>
       <c r="E414" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.35">
@@ -9472,7 +9472,7 @@
         <v>13</v>
       </c>
       <c r="E415" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.35">
@@ -9489,7 +9489,7 @@
         <v>13</v>
       </c>
       <c r="E416" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.35">
@@ -9506,7 +9506,7 @@
         <v>4</v>
       </c>
       <c r="E417" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.35">
@@ -9523,7 +9523,7 @@
         <v>13</v>
       </c>
       <c r="E418" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.35">
@@ -9540,7 +9540,7 @@
         <v>128</v>
       </c>
       <c r="E419" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.35">
@@ -9557,7 +9557,7 @@
         <v>128</v>
       </c>
       <c r="E420" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.35">
@@ -9574,7 +9574,7 @@
         <v>128</v>
       </c>
       <c r="E421" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.35">
@@ -9591,7 +9591,7 @@
         <v>128</v>
       </c>
       <c r="E422" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
